--- a/Bang ke NL, nông lâm sản/Nam 2017/Tháng 06.xlsx
+++ b/Bang ke NL, nông lâm sản/Nam 2017/Tháng 06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="15600" windowHeight="9915" tabRatio="862" activeTab="12"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="15600" windowHeight="9915" tabRatio="862" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Zhoushan 15" sheetId="28" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="Dae Young" sheetId="38" r:id="rId12"/>
     <sheet name="KOJUBU 04" sheetId="39" r:id="rId13"/>
     <sheet name="SEJIN" sheetId="40" r:id="rId14"/>
+    <sheet name="Zhoushan 18" sheetId="41" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
@@ -49,6 +49,7 @@
     <externalReference r:id="rId38"/>
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="6" hidden="1">#REF!</definedName>
@@ -268,6 +269,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'PV 70.000'!$11:$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Zhoushan 15'!$11:$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Zhoushan 16'!$11:$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">'Zhoushan 18'!$11:$13</definedName>
     <definedName name="_xlnm.Print_Titles">#N/A</definedName>
     <definedName name="PS">[10]Data!$B$5:$AI$92</definedName>
     <definedName name="PSCO_CD" localSheetId="6">#REF!</definedName>
@@ -349,12 +351,12 @@
     <definedName name="Xoa_mau_thke" localSheetId="6">[5]!Xoa_mau_thke</definedName>
     <definedName name="Xoa_mau_thke">[5]!Xoa_mau_thke</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="104">
   <si>
     <t>BẢNG KÊ THU MUA HÀNG HÓA, DỊCH VỤ 
 MUA VÀO KHÔNG CÓ HÓA ĐƠN</t>
@@ -676,6 +678,12 @@
   </si>
   <si>
     <t>(Ngày 23 tháng 06 năm 2017)</t>
+  </si>
+  <si>
+    <t>(Ngày 28 tháng 06 năm 2017)</t>
+  </si>
+  <si>
+    <t>Ngày 28 tháng  06 năm   2017</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1193,7 @@
     <xf numFmtId="172" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1443,6 +1451,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1499,9 +1510,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1596,6 +1604,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="cg" xfId="2"/>
@@ -1627,7 +1638,16 @@
     <cellStyle name="통화_1202" xfId="26"/>
     <cellStyle name="표준_(정보부문)월별인원계획" xfId="27"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -16778,54 +16798,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="C5" s="3"/>
@@ -16855,26 +16875,26 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="80" t="s">
         <v>11</v>
       </c>
@@ -17577,9 +17597,9 @@
         <v>29</v>
       </c>
       <c r="C43" s="19"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:11" ht="17.25" hidden="1" customHeight="1">
       <c r="B44" s="19"/>
@@ -17616,30 +17636,30 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" customHeight="1">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" ht="35.25" customHeight="1">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17654,7 +17674,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18253,54 +18273,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="9.75" customHeight="1">
       <c r="C5" s="3"/>
@@ -18331,26 +18351,26 @@
     </row>
     <row r="10" spans="1:9" ht="4.5" customHeight="1"/>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="100" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="100" t="s">
         <v>11</v>
       </c>
@@ -18844,9 +18864,9 @@
         <v>29</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="20" t="s">
@@ -18854,30 +18874,30 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" ht="36" customHeight="1">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -18892,7 +18912,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19491,54 +19511,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="C5" s="3"/>
@@ -19569,26 +19589,26 @@
     </row>
     <row r="10" spans="1:9" ht="3.75" customHeight="1"/>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="101" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="101" t="s">
         <v>11</v>
       </c>
@@ -20082,9 +20102,9 @@
         <v>29</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="20" t="s">
@@ -20092,30 +20112,30 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -20130,7 +20150,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20732,54 +20752,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:14" ht="20.25">
       <c r="C5" s="3"/>
@@ -20810,26 +20830,26 @@
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1"/>
     <row r="11" spans="1:14">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="102" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="102" t="s">
         <v>11</v>
       </c>
@@ -21089,9 +21109,9 @@
         <v>29</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="20" t="s">
@@ -21099,81 +21119,81 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
     </row>
     <row r="30" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
     </row>
     <row r="31" spans="1:14" ht="36" customHeight="1"/>
     <row r="32" spans="1:14">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113" t="s">
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="114"/>
+      <c r="I32" s="115"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="116"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="117"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="117"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="118"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="119"/>
     </row>
     <row r="36" spans="1:13" ht="20.25">
       <c r="C36" s="3"/>
@@ -21204,26 +21224,26 @@
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1"/>
     <row r="42" spans="1:13">
-      <c r="A42" s="121" t="s">
+      <c r="A42" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="126" t="s">
+      <c r="C42" s="125"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
       <c r="I42" s="103" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="28.5">
-      <c r="A43" s="122"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="103" t="s">
         <v>11</v>
       </c>
@@ -21446,9 +21466,9 @@
         <v>29</v>
       </c>
       <c r="C57" s="19"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="20" t="s">
@@ -21456,33 +21476,42 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
     </row>
     <row r="60" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A60" s="109" t="s">
+      <c r="A60" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="H1:I4"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="F57:H57"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A60:I60"/>
@@ -21492,18 +21521,9 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="E42:H42"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="H1:I4"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6 C36:E37 F37">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21516,8 +21536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -22102,54 +22122,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="A5" s="2"/>
@@ -22228,26 +22248,26 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="105" t="s">
         <v>11</v>
       </c>
@@ -22796,9 +22816,9 @@
       <c r="C36" s="19"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
@@ -22815,30 +22835,30 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -22853,7 +22873,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23452,54 +23472,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="2"/>
@@ -23578,26 +23598,26 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="105" t="s">
         <v>11</v>
       </c>
@@ -23907,9 +23927,9 @@
       <c r="C28" s="19"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:11">
@@ -23926,30 +23946,30 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
     </row>
     <row r="31" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -23964,12 +23984,1612 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="11" customWidth="1"/>
+    <col min="235" max="235" width="21" customWidth="1"/>
+    <col min="236" max="236" width="21.625" customWidth="1"/>
+    <col min="237" max="237" width="12.125" customWidth="1"/>
+    <col min="238" max="238" width="13.375" customWidth="1"/>
+    <col min="239" max="239" width="9.125" customWidth="1"/>
+    <col min="240" max="240" width="9.25" customWidth="1"/>
+    <col min="241" max="241" width="11.25" customWidth="1"/>
+    <col min="242" max="242" width="9.5" customWidth="1"/>
+    <col min="490" max="490" width="11" customWidth="1"/>
+    <col min="491" max="491" width="21" customWidth="1"/>
+    <col min="492" max="492" width="21.625" customWidth="1"/>
+    <col min="493" max="493" width="12.125" customWidth="1"/>
+    <col min="494" max="494" width="13.375" customWidth="1"/>
+    <col min="495" max="495" width="9.125" customWidth="1"/>
+    <col min="496" max="496" width="9.25" customWidth="1"/>
+    <col min="497" max="497" width="11.25" customWidth="1"/>
+    <col min="498" max="498" width="9.5" customWidth="1"/>
+    <col min="746" max="746" width="11" customWidth="1"/>
+    <col min="747" max="747" width="21" customWidth="1"/>
+    <col min="748" max="748" width="21.625" customWidth="1"/>
+    <col min="749" max="749" width="12.125" customWidth="1"/>
+    <col min="750" max="750" width="13.375" customWidth="1"/>
+    <col min="751" max="751" width="9.125" customWidth="1"/>
+    <col min="752" max="752" width="9.25" customWidth="1"/>
+    <col min="753" max="753" width="11.25" customWidth="1"/>
+    <col min="754" max="754" width="9.5" customWidth="1"/>
+    <col min="1002" max="1002" width="11" customWidth="1"/>
+    <col min="1003" max="1003" width="21" customWidth="1"/>
+    <col min="1004" max="1004" width="21.625" customWidth="1"/>
+    <col min="1005" max="1005" width="12.125" customWidth="1"/>
+    <col min="1006" max="1006" width="13.375" customWidth="1"/>
+    <col min="1007" max="1007" width="9.125" customWidth="1"/>
+    <col min="1008" max="1008" width="9.25" customWidth="1"/>
+    <col min="1009" max="1009" width="11.25" customWidth="1"/>
+    <col min="1010" max="1010" width="9.5" customWidth="1"/>
+    <col min="1258" max="1258" width="11" customWidth="1"/>
+    <col min="1259" max="1259" width="21" customWidth="1"/>
+    <col min="1260" max="1260" width="21.625" customWidth="1"/>
+    <col min="1261" max="1261" width="12.125" customWidth="1"/>
+    <col min="1262" max="1262" width="13.375" customWidth="1"/>
+    <col min="1263" max="1263" width="9.125" customWidth="1"/>
+    <col min="1264" max="1264" width="9.25" customWidth="1"/>
+    <col min="1265" max="1265" width="11.25" customWidth="1"/>
+    <col min="1266" max="1266" width="9.5" customWidth="1"/>
+    <col min="1514" max="1514" width="11" customWidth="1"/>
+    <col min="1515" max="1515" width="21" customWidth="1"/>
+    <col min="1516" max="1516" width="21.625" customWidth="1"/>
+    <col min="1517" max="1517" width="12.125" customWidth="1"/>
+    <col min="1518" max="1518" width="13.375" customWidth="1"/>
+    <col min="1519" max="1519" width="9.125" customWidth="1"/>
+    <col min="1520" max="1520" width="9.25" customWidth="1"/>
+    <col min="1521" max="1521" width="11.25" customWidth="1"/>
+    <col min="1522" max="1522" width="9.5" customWidth="1"/>
+    <col min="1770" max="1770" width="11" customWidth="1"/>
+    <col min="1771" max="1771" width="21" customWidth="1"/>
+    <col min="1772" max="1772" width="21.625" customWidth="1"/>
+    <col min="1773" max="1773" width="12.125" customWidth="1"/>
+    <col min="1774" max="1774" width="13.375" customWidth="1"/>
+    <col min="1775" max="1775" width="9.125" customWidth="1"/>
+    <col min="1776" max="1776" width="9.25" customWidth="1"/>
+    <col min="1777" max="1777" width="11.25" customWidth="1"/>
+    <col min="1778" max="1778" width="9.5" customWidth="1"/>
+    <col min="2026" max="2026" width="11" customWidth="1"/>
+    <col min="2027" max="2027" width="21" customWidth="1"/>
+    <col min="2028" max="2028" width="21.625" customWidth="1"/>
+    <col min="2029" max="2029" width="12.125" customWidth="1"/>
+    <col min="2030" max="2030" width="13.375" customWidth="1"/>
+    <col min="2031" max="2031" width="9.125" customWidth="1"/>
+    <col min="2032" max="2032" width="9.25" customWidth="1"/>
+    <col min="2033" max="2033" width="11.25" customWidth="1"/>
+    <col min="2034" max="2034" width="9.5" customWidth="1"/>
+    <col min="2282" max="2282" width="11" customWidth="1"/>
+    <col min="2283" max="2283" width="21" customWidth="1"/>
+    <col min="2284" max="2284" width="21.625" customWidth="1"/>
+    <col min="2285" max="2285" width="12.125" customWidth="1"/>
+    <col min="2286" max="2286" width="13.375" customWidth="1"/>
+    <col min="2287" max="2287" width="9.125" customWidth="1"/>
+    <col min="2288" max="2288" width="9.25" customWidth="1"/>
+    <col min="2289" max="2289" width="11.25" customWidth="1"/>
+    <col min="2290" max="2290" width="9.5" customWidth="1"/>
+    <col min="2538" max="2538" width="11" customWidth="1"/>
+    <col min="2539" max="2539" width="21" customWidth="1"/>
+    <col min="2540" max="2540" width="21.625" customWidth="1"/>
+    <col min="2541" max="2541" width="12.125" customWidth="1"/>
+    <col min="2542" max="2542" width="13.375" customWidth="1"/>
+    <col min="2543" max="2543" width="9.125" customWidth="1"/>
+    <col min="2544" max="2544" width="9.25" customWidth="1"/>
+    <col min="2545" max="2545" width="11.25" customWidth="1"/>
+    <col min="2546" max="2546" width="9.5" customWidth="1"/>
+    <col min="2794" max="2794" width="11" customWidth="1"/>
+    <col min="2795" max="2795" width="21" customWidth="1"/>
+    <col min="2796" max="2796" width="21.625" customWidth="1"/>
+    <col min="2797" max="2797" width="12.125" customWidth="1"/>
+    <col min="2798" max="2798" width="13.375" customWidth="1"/>
+    <col min="2799" max="2799" width="9.125" customWidth="1"/>
+    <col min="2800" max="2800" width="9.25" customWidth="1"/>
+    <col min="2801" max="2801" width="11.25" customWidth="1"/>
+    <col min="2802" max="2802" width="9.5" customWidth="1"/>
+    <col min="3050" max="3050" width="11" customWidth="1"/>
+    <col min="3051" max="3051" width="21" customWidth="1"/>
+    <col min="3052" max="3052" width="21.625" customWidth="1"/>
+    <col min="3053" max="3053" width="12.125" customWidth="1"/>
+    <col min="3054" max="3054" width="13.375" customWidth="1"/>
+    <col min="3055" max="3055" width="9.125" customWidth="1"/>
+    <col min="3056" max="3056" width="9.25" customWidth="1"/>
+    <col min="3057" max="3057" width="11.25" customWidth="1"/>
+    <col min="3058" max="3058" width="9.5" customWidth="1"/>
+    <col min="3306" max="3306" width="11" customWidth="1"/>
+    <col min="3307" max="3307" width="21" customWidth="1"/>
+    <col min="3308" max="3308" width="21.625" customWidth="1"/>
+    <col min="3309" max="3309" width="12.125" customWidth="1"/>
+    <col min="3310" max="3310" width="13.375" customWidth="1"/>
+    <col min="3311" max="3311" width="9.125" customWidth="1"/>
+    <col min="3312" max="3312" width="9.25" customWidth="1"/>
+    <col min="3313" max="3313" width="11.25" customWidth="1"/>
+    <col min="3314" max="3314" width="9.5" customWidth="1"/>
+    <col min="3562" max="3562" width="11" customWidth="1"/>
+    <col min="3563" max="3563" width="21" customWidth="1"/>
+    <col min="3564" max="3564" width="21.625" customWidth="1"/>
+    <col min="3565" max="3565" width="12.125" customWidth="1"/>
+    <col min="3566" max="3566" width="13.375" customWidth="1"/>
+    <col min="3567" max="3567" width="9.125" customWidth="1"/>
+    <col min="3568" max="3568" width="9.25" customWidth="1"/>
+    <col min="3569" max="3569" width="11.25" customWidth="1"/>
+    <col min="3570" max="3570" width="9.5" customWidth="1"/>
+    <col min="3818" max="3818" width="11" customWidth="1"/>
+    <col min="3819" max="3819" width="21" customWidth="1"/>
+    <col min="3820" max="3820" width="21.625" customWidth="1"/>
+    <col min="3821" max="3821" width="12.125" customWidth="1"/>
+    <col min="3822" max="3822" width="13.375" customWidth="1"/>
+    <col min="3823" max="3823" width="9.125" customWidth="1"/>
+    <col min="3824" max="3824" width="9.25" customWidth="1"/>
+    <col min="3825" max="3825" width="11.25" customWidth="1"/>
+    <col min="3826" max="3826" width="9.5" customWidth="1"/>
+    <col min="4074" max="4074" width="11" customWidth="1"/>
+    <col min="4075" max="4075" width="21" customWidth="1"/>
+    <col min="4076" max="4076" width="21.625" customWidth="1"/>
+    <col min="4077" max="4077" width="12.125" customWidth="1"/>
+    <col min="4078" max="4078" width="13.375" customWidth="1"/>
+    <col min="4079" max="4079" width="9.125" customWidth="1"/>
+    <col min="4080" max="4080" width="9.25" customWidth="1"/>
+    <col min="4081" max="4081" width="11.25" customWidth="1"/>
+    <col min="4082" max="4082" width="9.5" customWidth="1"/>
+    <col min="4330" max="4330" width="11" customWidth="1"/>
+    <col min="4331" max="4331" width="21" customWidth="1"/>
+    <col min="4332" max="4332" width="21.625" customWidth="1"/>
+    <col min="4333" max="4333" width="12.125" customWidth="1"/>
+    <col min="4334" max="4334" width="13.375" customWidth="1"/>
+    <col min="4335" max="4335" width="9.125" customWidth="1"/>
+    <col min="4336" max="4336" width="9.25" customWidth="1"/>
+    <col min="4337" max="4337" width="11.25" customWidth="1"/>
+    <col min="4338" max="4338" width="9.5" customWidth="1"/>
+    <col min="4586" max="4586" width="11" customWidth="1"/>
+    <col min="4587" max="4587" width="21" customWidth="1"/>
+    <col min="4588" max="4588" width="21.625" customWidth="1"/>
+    <col min="4589" max="4589" width="12.125" customWidth="1"/>
+    <col min="4590" max="4590" width="13.375" customWidth="1"/>
+    <col min="4591" max="4591" width="9.125" customWidth="1"/>
+    <col min="4592" max="4592" width="9.25" customWidth="1"/>
+    <col min="4593" max="4593" width="11.25" customWidth="1"/>
+    <col min="4594" max="4594" width="9.5" customWidth="1"/>
+    <col min="4842" max="4842" width="11" customWidth="1"/>
+    <col min="4843" max="4843" width="21" customWidth="1"/>
+    <col min="4844" max="4844" width="21.625" customWidth="1"/>
+    <col min="4845" max="4845" width="12.125" customWidth="1"/>
+    <col min="4846" max="4846" width="13.375" customWidth="1"/>
+    <col min="4847" max="4847" width="9.125" customWidth="1"/>
+    <col min="4848" max="4848" width="9.25" customWidth="1"/>
+    <col min="4849" max="4849" width="11.25" customWidth="1"/>
+    <col min="4850" max="4850" width="9.5" customWidth="1"/>
+    <col min="5098" max="5098" width="11" customWidth="1"/>
+    <col min="5099" max="5099" width="21" customWidth="1"/>
+    <col min="5100" max="5100" width="21.625" customWidth="1"/>
+    <col min="5101" max="5101" width="12.125" customWidth="1"/>
+    <col min="5102" max="5102" width="13.375" customWidth="1"/>
+    <col min="5103" max="5103" width="9.125" customWidth="1"/>
+    <col min="5104" max="5104" width="9.25" customWidth="1"/>
+    <col min="5105" max="5105" width="11.25" customWidth="1"/>
+    <col min="5106" max="5106" width="9.5" customWidth="1"/>
+    <col min="5354" max="5354" width="11" customWidth="1"/>
+    <col min="5355" max="5355" width="21" customWidth="1"/>
+    <col min="5356" max="5356" width="21.625" customWidth="1"/>
+    <col min="5357" max="5357" width="12.125" customWidth="1"/>
+    <col min="5358" max="5358" width="13.375" customWidth="1"/>
+    <col min="5359" max="5359" width="9.125" customWidth="1"/>
+    <col min="5360" max="5360" width="9.25" customWidth="1"/>
+    <col min="5361" max="5361" width="11.25" customWidth="1"/>
+    <col min="5362" max="5362" width="9.5" customWidth="1"/>
+    <col min="5610" max="5610" width="11" customWidth="1"/>
+    <col min="5611" max="5611" width="21" customWidth="1"/>
+    <col min="5612" max="5612" width="21.625" customWidth="1"/>
+    <col min="5613" max="5613" width="12.125" customWidth="1"/>
+    <col min="5614" max="5614" width="13.375" customWidth="1"/>
+    <col min="5615" max="5615" width="9.125" customWidth="1"/>
+    <col min="5616" max="5616" width="9.25" customWidth="1"/>
+    <col min="5617" max="5617" width="11.25" customWidth="1"/>
+    <col min="5618" max="5618" width="9.5" customWidth="1"/>
+    <col min="5866" max="5866" width="11" customWidth="1"/>
+    <col min="5867" max="5867" width="21" customWidth="1"/>
+    <col min="5868" max="5868" width="21.625" customWidth="1"/>
+    <col min="5869" max="5869" width="12.125" customWidth="1"/>
+    <col min="5870" max="5870" width="13.375" customWidth="1"/>
+    <col min="5871" max="5871" width="9.125" customWidth="1"/>
+    <col min="5872" max="5872" width="9.25" customWidth="1"/>
+    <col min="5873" max="5873" width="11.25" customWidth="1"/>
+    <col min="5874" max="5874" width="9.5" customWidth="1"/>
+    <col min="6122" max="6122" width="11" customWidth="1"/>
+    <col min="6123" max="6123" width="21" customWidth="1"/>
+    <col min="6124" max="6124" width="21.625" customWidth="1"/>
+    <col min="6125" max="6125" width="12.125" customWidth="1"/>
+    <col min="6126" max="6126" width="13.375" customWidth="1"/>
+    <col min="6127" max="6127" width="9.125" customWidth="1"/>
+    <col min="6128" max="6128" width="9.25" customWidth="1"/>
+    <col min="6129" max="6129" width="11.25" customWidth="1"/>
+    <col min="6130" max="6130" width="9.5" customWidth="1"/>
+    <col min="6378" max="6378" width="11" customWidth="1"/>
+    <col min="6379" max="6379" width="21" customWidth="1"/>
+    <col min="6380" max="6380" width="21.625" customWidth="1"/>
+    <col min="6381" max="6381" width="12.125" customWidth="1"/>
+    <col min="6382" max="6382" width="13.375" customWidth="1"/>
+    <col min="6383" max="6383" width="9.125" customWidth="1"/>
+    <col min="6384" max="6384" width="9.25" customWidth="1"/>
+    <col min="6385" max="6385" width="11.25" customWidth="1"/>
+    <col min="6386" max="6386" width="9.5" customWidth="1"/>
+    <col min="6634" max="6634" width="11" customWidth="1"/>
+    <col min="6635" max="6635" width="21" customWidth="1"/>
+    <col min="6636" max="6636" width="21.625" customWidth="1"/>
+    <col min="6637" max="6637" width="12.125" customWidth="1"/>
+    <col min="6638" max="6638" width="13.375" customWidth="1"/>
+    <col min="6639" max="6639" width="9.125" customWidth="1"/>
+    <col min="6640" max="6640" width="9.25" customWidth="1"/>
+    <col min="6641" max="6641" width="11.25" customWidth="1"/>
+    <col min="6642" max="6642" width="9.5" customWidth="1"/>
+    <col min="6890" max="6890" width="11" customWidth="1"/>
+    <col min="6891" max="6891" width="21" customWidth="1"/>
+    <col min="6892" max="6892" width="21.625" customWidth="1"/>
+    <col min="6893" max="6893" width="12.125" customWidth="1"/>
+    <col min="6894" max="6894" width="13.375" customWidth="1"/>
+    <col min="6895" max="6895" width="9.125" customWidth="1"/>
+    <col min="6896" max="6896" width="9.25" customWidth="1"/>
+    <col min="6897" max="6897" width="11.25" customWidth="1"/>
+    <col min="6898" max="6898" width="9.5" customWidth="1"/>
+    <col min="7146" max="7146" width="11" customWidth="1"/>
+    <col min="7147" max="7147" width="21" customWidth="1"/>
+    <col min="7148" max="7148" width="21.625" customWidth="1"/>
+    <col min="7149" max="7149" width="12.125" customWidth="1"/>
+    <col min="7150" max="7150" width="13.375" customWidth="1"/>
+    <col min="7151" max="7151" width="9.125" customWidth="1"/>
+    <col min="7152" max="7152" width="9.25" customWidth="1"/>
+    <col min="7153" max="7153" width="11.25" customWidth="1"/>
+    <col min="7154" max="7154" width="9.5" customWidth="1"/>
+    <col min="7402" max="7402" width="11" customWidth="1"/>
+    <col min="7403" max="7403" width="21" customWidth="1"/>
+    <col min="7404" max="7404" width="21.625" customWidth="1"/>
+    <col min="7405" max="7405" width="12.125" customWidth="1"/>
+    <col min="7406" max="7406" width="13.375" customWidth="1"/>
+    <col min="7407" max="7407" width="9.125" customWidth="1"/>
+    <col min="7408" max="7408" width="9.25" customWidth="1"/>
+    <col min="7409" max="7409" width="11.25" customWidth="1"/>
+    <col min="7410" max="7410" width="9.5" customWidth="1"/>
+    <col min="7658" max="7658" width="11" customWidth="1"/>
+    <col min="7659" max="7659" width="21" customWidth="1"/>
+    <col min="7660" max="7660" width="21.625" customWidth="1"/>
+    <col min="7661" max="7661" width="12.125" customWidth="1"/>
+    <col min="7662" max="7662" width="13.375" customWidth="1"/>
+    <col min="7663" max="7663" width="9.125" customWidth="1"/>
+    <col min="7664" max="7664" width="9.25" customWidth="1"/>
+    <col min="7665" max="7665" width="11.25" customWidth="1"/>
+    <col min="7666" max="7666" width="9.5" customWidth="1"/>
+    <col min="7914" max="7914" width="11" customWidth="1"/>
+    <col min="7915" max="7915" width="21" customWidth="1"/>
+    <col min="7916" max="7916" width="21.625" customWidth="1"/>
+    <col min="7917" max="7917" width="12.125" customWidth="1"/>
+    <col min="7918" max="7918" width="13.375" customWidth="1"/>
+    <col min="7919" max="7919" width="9.125" customWidth="1"/>
+    <col min="7920" max="7920" width="9.25" customWidth="1"/>
+    <col min="7921" max="7921" width="11.25" customWidth="1"/>
+    <col min="7922" max="7922" width="9.5" customWidth="1"/>
+    <col min="8170" max="8170" width="11" customWidth="1"/>
+    <col min="8171" max="8171" width="21" customWidth="1"/>
+    <col min="8172" max="8172" width="21.625" customWidth="1"/>
+    <col min="8173" max="8173" width="12.125" customWidth="1"/>
+    <col min="8174" max="8174" width="13.375" customWidth="1"/>
+    <col min="8175" max="8175" width="9.125" customWidth="1"/>
+    <col min="8176" max="8176" width="9.25" customWidth="1"/>
+    <col min="8177" max="8177" width="11.25" customWidth="1"/>
+    <col min="8178" max="8178" width="9.5" customWidth="1"/>
+    <col min="8426" max="8426" width="11" customWidth="1"/>
+    <col min="8427" max="8427" width="21" customWidth="1"/>
+    <col min="8428" max="8428" width="21.625" customWidth="1"/>
+    <col min="8429" max="8429" width="12.125" customWidth="1"/>
+    <col min="8430" max="8430" width="13.375" customWidth="1"/>
+    <col min="8431" max="8431" width="9.125" customWidth="1"/>
+    <col min="8432" max="8432" width="9.25" customWidth="1"/>
+    <col min="8433" max="8433" width="11.25" customWidth="1"/>
+    <col min="8434" max="8434" width="9.5" customWidth="1"/>
+    <col min="8682" max="8682" width="11" customWidth="1"/>
+    <col min="8683" max="8683" width="21" customWidth="1"/>
+    <col min="8684" max="8684" width="21.625" customWidth="1"/>
+    <col min="8685" max="8685" width="12.125" customWidth="1"/>
+    <col min="8686" max="8686" width="13.375" customWidth="1"/>
+    <col min="8687" max="8687" width="9.125" customWidth="1"/>
+    <col min="8688" max="8688" width="9.25" customWidth="1"/>
+    <col min="8689" max="8689" width="11.25" customWidth="1"/>
+    <col min="8690" max="8690" width="9.5" customWidth="1"/>
+    <col min="8938" max="8938" width="11" customWidth="1"/>
+    <col min="8939" max="8939" width="21" customWidth="1"/>
+    <col min="8940" max="8940" width="21.625" customWidth="1"/>
+    <col min="8941" max="8941" width="12.125" customWidth="1"/>
+    <col min="8942" max="8942" width="13.375" customWidth="1"/>
+    <col min="8943" max="8943" width="9.125" customWidth="1"/>
+    <col min="8944" max="8944" width="9.25" customWidth="1"/>
+    <col min="8945" max="8945" width="11.25" customWidth="1"/>
+    <col min="8946" max="8946" width="9.5" customWidth="1"/>
+    <col min="9194" max="9194" width="11" customWidth="1"/>
+    <col min="9195" max="9195" width="21" customWidth="1"/>
+    <col min="9196" max="9196" width="21.625" customWidth="1"/>
+    <col min="9197" max="9197" width="12.125" customWidth="1"/>
+    <col min="9198" max="9198" width="13.375" customWidth="1"/>
+    <col min="9199" max="9199" width="9.125" customWidth="1"/>
+    <col min="9200" max="9200" width="9.25" customWidth="1"/>
+    <col min="9201" max="9201" width="11.25" customWidth="1"/>
+    <col min="9202" max="9202" width="9.5" customWidth="1"/>
+    <col min="9450" max="9450" width="11" customWidth="1"/>
+    <col min="9451" max="9451" width="21" customWidth="1"/>
+    <col min="9452" max="9452" width="21.625" customWidth="1"/>
+    <col min="9453" max="9453" width="12.125" customWidth="1"/>
+    <col min="9454" max="9454" width="13.375" customWidth="1"/>
+    <col min="9455" max="9455" width="9.125" customWidth="1"/>
+    <col min="9456" max="9456" width="9.25" customWidth="1"/>
+    <col min="9457" max="9457" width="11.25" customWidth="1"/>
+    <col min="9458" max="9458" width="9.5" customWidth="1"/>
+    <col min="9706" max="9706" width="11" customWidth="1"/>
+    <col min="9707" max="9707" width="21" customWidth="1"/>
+    <col min="9708" max="9708" width="21.625" customWidth="1"/>
+    <col min="9709" max="9709" width="12.125" customWidth="1"/>
+    <col min="9710" max="9710" width="13.375" customWidth="1"/>
+    <col min="9711" max="9711" width="9.125" customWidth="1"/>
+    <col min="9712" max="9712" width="9.25" customWidth="1"/>
+    <col min="9713" max="9713" width="11.25" customWidth="1"/>
+    <col min="9714" max="9714" width="9.5" customWidth="1"/>
+    <col min="9962" max="9962" width="11" customWidth="1"/>
+    <col min="9963" max="9963" width="21" customWidth="1"/>
+    <col min="9964" max="9964" width="21.625" customWidth="1"/>
+    <col min="9965" max="9965" width="12.125" customWidth="1"/>
+    <col min="9966" max="9966" width="13.375" customWidth="1"/>
+    <col min="9967" max="9967" width="9.125" customWidth="1"/>
+    <col min="9968" max="9968" width="9.25" customWidth="1"/>
+    <col min="9969" max="9969" width="11.25" customWidth="1"/>
+    <col min="9970" max="9970" width="9.5" customWidth="1"/>
+    <col min="10218" max="10218" width="11" customWidth="1"/>
+    <col min="10219" max="10219" width="21" customWidth="1"/>
+    <col min="10220" max="10220" width="21.625" customWidth="1"/>
+    <col min="10221" max="10221" width="12.125" customWidth="1"/>
+    <col min="10222" max="10222" width="13.375" customWidth="1"/>
+    <col min="10223" max="10223" width="9.125" customWidth="1"/>
+    <col min="10224" max="10224" width="9.25" customWidth="1"/>
+    <col min="10225" max="10225" width="11.25" customWidth="1"/>
+    <col min="10226" max="10226" width="9.5" customWidth="1"/>
+    <col min="10474" max="10474" width="11" customWidth="1"/>
+    <col min="10475" max="10475" width="21" customWidth="1"/>
+    <col min="10476" max="10476" width="21.625" customWidth="1"/>
+    <col min="10477" max="10477" width="12.125" customWidth="1"/>
+    <col min="10478" max="10478" width="13.375" customWidth="1"/>
+    <col min="10479" max="10479" width="9.125" customWidth="1"/>
+    <col min="10480" max="10480" width="9.25" customWidth="1"/>
+    <col min="10481" max="10481" width="11.25" customWidth="1"/>
+    <col min="10482" max="10482" width="9.5" customWidth="1"/>
+    <col min="10730" max="10730" width="11" customWidth="1"/>
+    <col min="10731" max="10731" width="21" customWidth="1"/>
+    <col min="10732" max="10732" width="21.625" customWidth="1"/>
+    <col min="10733" max="10733" width="12.125" customWidth="1"/>
+    <col min="10734" max="10734" width="13.375" customWidth="1"/>
+    <col min="10735" max="10735" width="9.125" customWidth="1"/>
+    <col min="10736" max="10736" width="9.25" customWidth="1"/>
+    <col min="10737" max="10737" width="11.25" customWidth="1"/>
+    <col min="10738" max="10738" width="9.5" customWidth="1"/>
+    <col min="10986" max="10986" width="11" customWidth="1"/>
+    <col min="10987" max="10987" width="21" customWidth="1"/>
+    <col min="10988" max="10988" width="21.625" customWidth="1"/>
+    <col min="10989" max="10989" width="12.125" customWidth="1"/>
+    <col min="10990" max="10990" width="13.375" customWidth="1"/>
+    <col min="10991" max="10991" width="9.125" customWidth="1"/>
+    <col min="10992" max="10992" width="9.25" customWidth="1"/>
+    <col min="10993" max="10993" width="11.25" customWidth="1"/>
+    <col min="10994" max="10994" width="9.5" customWidth="1"/>
+    <col min="11242" max="11242" width="11" customWidth="1"/>
+    <col min="11243" max="11243" width="21" customWidth="1"/>
+    <col min="11244" max="11244" width="21.625" customWidth="1"/>
+    <col min="11245" max="11245" width="12.125" customWidth="1"/>
+    <col min="11246" max="11246" width="13.375" customWidth="1"/>
+    <col min="11247" max="11247" width="9.125" customWidth="1"/>
+    <col min="11248" max="11248" width="9.25" customWidth="1"/>
+    <col min="11249" max="11249" width="11.25" customWidth="1"/>
+    <col min="11250" max="11250" width="9.5" customWidth="1"/>
+    <col min="11498" max="11498" width="11" customWidth="1"/>
+    <col min="11499" max="11499" width="21" customWidth="1"/>
+    <col min="11500" max="11500" width="21.625" customWidth="1"/>
+    <col min="11501" max="11501" width="12.125" customWidth="1"/>
+    <col min="11502" max="11502" width="13.375" customWidth="1"/>
+    <col min="11503" max="11503" width="9.125" customWidth="1"/>
+    <col min="11504" max="11504" width="9.25" customWidth="1"/>
+    <col min="11505" max="11505" width="11.25" customWidth="1"/>
+    <col min="11506" max="11506" width="9.5" customWidth="1"/>
+    <col min="11754" max="11754" width="11" customWidth="1"/>
+    <col min="11755" max="11755" width="21" customWidth="1"/>
+    <col min="11756" max="11756" width="21.625" customWidth="1"/>
+    <col min="11757" max="11757" width="12.125" customWidth="1"/>
+    <col min="11758" max="11758" width="13.375" customWidth="1"/>
+    <col min="11759" max="11759" width="9.125" customWidth="1"/>
+    <col min="11760" max="11760" width="9.25" customWidth="1"/>
+    <col min="11761" max="11761" width="11.25" customWidth="1"/>
+    <col min="11762" max="11762" width="9.5" customWidth="1"/>
+    <col min="12010" max="12010" width="11" customWidth="1"/>
+    <col min="12011" max="12011" width="21" customWidth="1"/>
+    <col min="12012" max="12012" width="21.625" customWidth="1"/>
+    <col min="12013" max="12013" width="12.125" customWidth="1"/>
+    <col min="12014" max="12014" width="13.375" customWidth="1"/>
+    <col min="12015" max="12015" width="9.125" customWidth="1"/>
+    <col min="12016" max="12016" width="9.25" customWidth="1"/>
+    <col min="12017" max="12017" width="11.25" customWidth="1"/>
+    <col min="12018" max="12018" width="9.5" customWidth="1"/>
+    <col min="12266" max="12266" width="11" customWidth="1"/>
+    <col min="12267" max="12267" width="21" customWidth="1"/>
+    <col min="12268" max="12268" width="21.625" customWidth="1"/>
+    <col min="12269" max="12269" width="12.125" customWidth="1"/>
+    <col min="12270" max="12270" width="13.375" customWidth="1"/>
+    <col min="12271" max="12271" width="9.125" customWidth="1"/>
+    <col min="12272" max="12272" width="9.25" customWidth="1"/>
+    <col min="12273" max="12273" width="11.25" customWidth="1"/>
+    <col min="12274" max="12274" width="9.5" customWidth="1"/>
+    <col min="12522" max="12522" width="11" customWidth="1"/>
+    <col min="12523" max="12523" width="21" customWidth="1"/>
+    <col min="12524" max="12524" width="21.625" customWidth="1"/>
+    <col min="12525" max="12525" width="12.125" customWidth="1"/>
+    <col min="12526" max="12526" width="13.375" customWidth="1"/>
+    <col min="12527" max="12527" width="9.125" customWidth="1"/>
+    <col min="12528" max="12528" width="9.25" customWidth="1"/>
+    <col min="12529" max="12529" width="11.25" customWidth="1"/>
+    <col min="12530" max="12530" width="9.5" customWidth="1"/>
+    <col min="12778" max="12778" width="11" customWidth="1"/>
+    <col min="12779" max="12779" width="21" customWidth="1"/>
+    <col min="12780" max="12780" width="21.625" customWidth="1"/>
+    <col min="12781" max="12781" width="12.125" customWidth="1"/>
+    <col min="12782" max="12782" width="13.375" customWidth="1"/>
+    <col min="12783" max="12783" width="9.125" customWidth="1"/>
+    <col min="12784" max="12784" width="9.25" customWidth="1"/>
+    <col min="12785" max="12785" width="11.25" customWidth="1"/>
+    <col min="12786" max="12786" width="9.5" customWidth="1"/>
+    <col min="13034" max="13034" width="11" customWidth="1"/>
+    <col min="13035" max="13035" width="21" customWidth="1"/>
+    <col min="13036" max="13036" width="21.625" customWidth="1"/>
+    <col min="13037" max="13037" width="12.125" customWidth="1"/>
+    <col min="13038" max="13038" width="13.375" customWidth="1"/>
+    <col min="13039" max="13039" width="9.125" customWidth="1"/>
+    <col min="13040" max="13040" width="9.25" customWidth="1"/>
+    <col min="13041" max="13041" width="11.25" customWidth="1"/>
+    <col min="13042" max="13042" width="9.5" customWidth="1"/>
+    <col min="13290" max="13290" width="11" customWidth="1"/>
+    <col min="13291" max="13291" width="21" customWidth="1"/>
+    <col min="13292" max="13292" width="21.625" customWidth="1"/>
+    <col min="13293" max="13293" width="12.125" customWidth="1"/>
+    <col min="13294" max="13294" width="13.375" customWidth="1"/>
+    <col min="13295" max="13295" width="9.125" customWidth="1"/>
+    <col min="13296" max="13296" width="9.25" customWidth="1"/>
+    <col min="13297" max="13297" width="11.25" customWidth="1"/>
+    <col min="13298" max="13298" width="9.5" customWidth="1"/>
+    <col min="13546" max="13546" width="11" customWidth="1"/>
+    <col min="13547" max="13547" width="21" customWidth="1"/>
+    <col min="13548" max="13548" width="21.625" customWidth="1"/>
+    <col min="13549" max="13549" width="12.125" customWidth="1"/>
+    <col min="13550" max="13550" width="13.375" customWidth="1"/>
+    <col min="13551" max="13551" width="9.125" customWidth="1"/>
+    <col min="13552" max="13552" width="9.25" customWidth="1"/>
+    <col min="13553" max="13553" width="11.25" customWidth="1"/>
+    <col min="13554" max="13554" width="9.5" customWidth="1"/>
+    <col min="13802" max="13802" width="11" customWidth="1"/>
+    <col min="13803" max="13803" width="21" customWidth="1"/>
+    <col min="13804" max="13804" width="21.625" customWidth="1"/>
+    <col min="13805" max="13805" width="12.125" customWidth="1"/>
+    <col min="13806" max="13806" width="13.375" customWidth="1"/>
+    <col min="13807" max="13807" width="9.125" customWidth="1"/>
+    <col min="13808" max="13808" width="9.25" customWidth="1"/>
+    <col min="13809" max="13809" width="11.25" customWidth="1"/>
+    <col min="13810" max="13810" width="9.5" customWidth="1"/>
+    <col min="14058" max="14058" width="11" customWidth="1"/>
+    <col min="14059" max="14059" width="21" customWidth="1"/>
+    <col min="14060" max="14060" width="21.625" customWidth="1"/>
+    <col min="14061" max="14061" width="12.125" customWidth="1"/>
+    <col min="14062" max="14062" width="13.375" customWidth="1"/>
+    <col min="14063" max="14063" width="9.125" customWidth="1"/>
+    <col min="14064" max="14064" width="9.25" customWidth="1"/>
+    <col min="14065" max="14065" width="11.25" customWidth="1"/>
+    <col min="14066" max="14066" width="9.5" customWidth="1"/>
+    <col min="14314" max="14314" width="11" customWidth="1"/>
+    <col min="14315" max="14315" width="21" customWidth="1"/>
+    <col min="14316" max="14316" width="21.625" customWidth="1"/>
+    <col min="14317" max="14317" width="12.125" customWidth="1"/>
+    <col min="14318" max="14318" width="13.375" customWidth="1"/>
+    <col min="14319" max="14319" width="9.125" customWidth="1"/>
+    <col min="14320" max="14320" width="9.25" customWidth="1"/>
+    <col min="14321" max="14321" width="11.25" customWidth="1"/>
+    <col min="14322" max="14322" width="9.5" customWidth="1"/>
+    <col min="14570" max="14570" width="11" customWidth="1"/>
+    <col min="14571" max="14571" width="21" customWidth="1"/>
+    <col min="14572" max="14572" width="21.625" customWidth="1"/>
+    <col min="14573" max="14573" width="12.125" customWidth="1"/>
+    <col min="14574" max="14574" width="13.375" customWidth="1"/>
+    <col min="14575" max="14575" width="9.125" customWidth="1"/>
+    <col min="14576" max="14576" width="9.25" customWidth="1"/>
+    <col min="14577" max="14577" width="11.25" customWidth="1"/>
+    <col min="14578" max="14578" width="9.5" customWidth="1"/>
+    <col min="14826" max="14826" width="11" customWidth="1"/>
+    <col min="14827" max="14827" width="21" customWidth="1"/>
+    <col min="14828" max="14828" width="21.625" customWidth="1"/>
+    <col min="14829" max="14829" width="12.125" customWidth="1"/>
+    <col min="14830" max="14830" width="13.375" customWidth="1"/>
+    <col min="14831" max="14831" width="9.125" customWidth="1"/>
+    <col min="14832" max="14832" width="9.25" customWidth="1"/>
+    <col min="14833" max="14833" width="11.25" customWidth="1"/>
+    <col min="14834" max="14834" width="9.5" customWidth="1"/>
+    <col min="15082" max="15082" width="11" customWidth="1"/>
+    <col min="15083" max="15083" width="21" customWidth="1"/>
+    <col min="15084" max="15084" width="21.625" customWidth="1"/>
+    <col min="15085" max="15085" width="12.125" customWidth="1"/>
+    <col min="15086" max="15086" width="13.375" customWidth="1"/>
+    <col min="15087" max="15087" width="9.125" customWidth="1"/>
+    <col min="15088" max="15088" width="9.25" customWidth="1"/>
+    <col min="15089" max="15089" width="11.25" customWidth="1"/>
+    <col min="15090" max="15090" width="9.5" customWidth="1"/>
+    <col min="15338" max="15338" width="11" customWidth="1"/>
+    <col min="15339" max="15339" width="21" customWidth="1"/>
+    <col min="15340" max="15340" width="21.625" customWidth="1"/>
+    <col min="15341" max="15341" width="12.125" customWidth="1"/>
+    <col min="15342" max="15342" width="13.375" customWidth="1"/>
+    <col min="15343" max="15343" width="9.125" customWidth="1"/>
+    <col min="15344" max="15344" width="9.25" customWidth="1"/>
+    <col min="15345" max="15345" width="11.25" customWidth="1"/>
+    <col min="15346" max="15346" width="9.5" customWidth="1"/>
+    <col min="15594" max="15594" width="11" customWidth="1"/>
+    <col min="15595" max="15595" width="21" customWidth="1"/>
+    <col min="15596" max="15596" width="21.625" customWidth="1"/>
+    <col min="15597" max="15597" width="12.125" customWidth="1"/>
+    <col min="15598" max="15598" width="13.375" customWidth="1"/>
+    <col min="15599" max="15599" width="9.125" customWidth="1"/>
+    <col min="15600" max="15600" width="9.25" customWidth="1"/>
+    <col min="15601" max="15601" width="11.25" customWidth="1"/>
+    <col min="15602" max="15602" width="9.5" customWidth="1"/>
+    <col min="15850" max="15850" width="11" customWidth="1"/>
+    <col min="15851" max="15851" width="21" customWidth="1"/>
+    <col min="15852" max="15852" width="21.625" customWidth="1"/>
+    <col min="15853" max="15853" width="12.125" customWidth="1"/>
+    <col min="15854" max="15854" width="13.375" customWidth="1"/>
+    <col min="15855" max="15855" width="9.125" customWidth="1"/>
+    <col min="15856" max="15856" width="9.25" customWidth="1"/>
+    <col min="15857" max="15857" width="11.25" customWidth="1"/>
+    <col min="15858" max="15858" width="9.5" customWidth="1"/>
+    <col min="16106" max="16106" width="11" customWidth="1"/>
+    <col min="16107" max="16107" width="21" customWidth="1"/>
+    <col min="16108" max="16108" width="21.625" customWidth="1"/>
+    <col min="16109" max="16109" width="12.125" customWidth="1"/>
+    <col min="16110" max="16110" width="13.375" customWidth="1"/>
+    <col min="16111" max="16111" width="9.125" customWidth="1"/>
+    <col min="16112" max="16112" width="9.25" customWidth="1"/>
+    <col min="16113" max="16113" width="11.25" customWidth="1"/>
+    <col min="16114" max="16114" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="115"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A11" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.5">
+      <c r="A12" s="123"/>
+      <c r="B12" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="108"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="8">
+        <v>8</v>
+      </c>
+      <c r="I13" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="33">
+        <v>42900</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="23" t="str">
+        <f>VLOOKUP(B14,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Đức Linh - Bình Thuận</v>
+      </c>
+      <c r="D14" s="23">
+        <f>VLOOKUP(B14,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260682094</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="24">
+        <v>15345</v>
+      </c>
+      <c r="G14" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H14" s="26">
+        <f t="shared" ref="H14:H37" si="0">F14*G14</f>
+        <v>237847500</v>
+      </c>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="33">
+        <v>42900</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="23" t="str">
+        <f>VLOOKUP(B15,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Thanh Hải - Bình Thuận</v>
+      </c>
+      <c r="D15" s="23">
+        <f>VLOOKUP(B15,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>261005222</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="24">
+        <v>15250</v>
+      </c>
+      <c r="G15" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" si="0"/>
+        <v>236375000</v>
+      </c>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="33">
+        <v>42900</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="23" t="str">
+        <f>VLOOKUP(B16,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D16" s="23">
+        <f>VLOOKUP(B16,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260850613</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="24">
+        <v>15520</v>
+      </c>
+      <c r="G16" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H16" s="26">
+        <f t="shared" si="0"/>
+        <v>240560000</v>
+      </c>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="33">
+        <v>42900</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="23" t="str">
+        <f>VLOOKUP(B17,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Đức Linh - Bình Thuận</v>
+      </c>
+      <c r="D17" s="23">
+        <f>VLOOKUP(B17,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>250746332</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="24">
+        <v>14970</v>
+      </c>
+      <c r="G17" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="0"/>
+        <v>232035000</v>
+      </c>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="33">
+        <v>42902</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="23" t="str">
+        <f>VLOOKUP(B18,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D18" s="23">
+        <f>VLOOKUP(B18,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>280853616</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="24">
+        <v>15880</v>
+      </c>
+      <c r="G18" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="0"/>
+        <v>246140000</v>
+      </c>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33">
+        <v>42902</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="23" t="str">
+        <f>VLOOKUP(B19,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D19" s="23">
+        <f>VLOOKUP(B19,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260178873</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="24">
+        <v>15950</v>
+      </c>
+      <c r="G19" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H19" s="26">
+        <f t="shared" si="0"/>
+        <v>247225000</v>
+      </c>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="33">
+        <v>42902</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>VLOOKUP(B20,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Hàm Tân - Bình Thuận</v>
+      </c>
+      <c r="D20" s="23">
+        <f>VLOOKUP(B20,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260690910</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="24">
+        <v>15475</v>
+      </c>
+      <c r="G20" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" si="0"/>
+        <v>239862500</v>
+      </c>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="33">
+        <v>42902</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f>VLOOKUP(B21,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Long Hương - Bình Thuận</v>
+      </c>
+      <c r="D21" s="23" t="str">
+        <f>VLOOKUP(B21,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>020714486</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="24">
+        <v>15550</v>
+      </c>
+      <c r="G21" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" si="0"/>
+        <v>241025000</v>
+      </c>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="33">
+        <v>42905</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f>VLOOKUP(B22,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D22" s="23">
+        <f>VLOOKUP(B22,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260850613</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="24">
+        <v>15680</v>
+      </c>
+      <c r="G22" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="0"/>
+        <v>243040000</v>
+      </c>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="33">
+        <v>42905</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f>VLOOKUP(B23,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Đức Linh - Bình Thuận</v>
+      </c>
+      <c r="D23" s="23">
+        <f>VLOOKUP(B23,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>250746332</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="29">
+        <v>15860</v>
+      </c>
+      <c r="G23" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="0"/>
+        <v>245830000</v>
+      </c>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="33">
+        <v>42905</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f>VLOOKUP(B24,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Đức Linh - Bình Thuận</v>
+      </c>
+      <c r="D24" s="23">
+        <f>VLOOKUP(B24,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260682094</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="24">
+        <v>15750</v>
+      </c>
+      <c r="G24" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H24" s="26">
+        <f t="shared" si="0"/>
+        <v>244125000</v>
+      </c>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="33">
+        <v>42905</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>VLOOKUP(B25,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Thanh Hải - Bình Thuận</v>
+      </c>
+      <c r="D25" s="23">
+        <f>VLOOKUP(B25,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>261005222</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="24">
+        <v>15420</v>
+      </c>
+      <c r="G25" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H25" s="26">
+        <f t="shared" si="0"/>
+        <v>239010000</v>
+      </c>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="33">
+        <v>42907</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f>VLOOKUP(B26,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D26" s="23">
+        <f>VLOOKUP(B26,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260178873</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="24">
+        <v>15740</v>
+      </c>
+      <c r="G26" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H26" s="26">
+        <f t="shared" ref="H26:H34" si="1">F26*G26</f>
+        <v>243970000</v>
+      </c>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="33">
+        <v>42907</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f>VLOOKUP(B27,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Long Hương - Bình Thuận</v>
+      </c>
+      <c r="D27" s="23" t="str">
+        <f>VLOOKUP(B27,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>020714486</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="24">
+        <v>15590</v>
+      </c>
+      <c r="G27" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H27" s="26">
+        <f t="shared" si="1"/>
+        <v>241645000</v>
+      </c>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="33">
+        <v>42907</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="23" t="str">
+        <f>VLOOKUP(B28,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Hàm Tân - Bình Thuận</v>
+      </c>
+      <c r="D28" s="23">
+        <f>VLOOKUP(B28,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260690910</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="24">
+        <v>15430</v>
+      </c>
+      <c r="G28" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H28" s="26">
+        <f t="shared" si="1"/>
+        <v>239165000</v>
+      </c>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="33">
+        <v>42907</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="23" t="str">
+        <f>VLOOKUP(B29,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D29" s="23">
+        <f>VLOOKUP(B29,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>280853616</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="24">
+        <v>15610</v>
+      </c>
+      <c r="G29" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H29" s="26">
+        <f t="shared" si="1"/>
+        <v>241955000</v>
+      </c>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="33">
+        <v>42909</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="23" t="str">
+        <f>VLOOKUP(B30,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Đức Linh - Bình Thuận</v>
+      </c>
+      <c r="D30" s="23">
+        <f>VLOOKUP(B30,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>250746332</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="24">
+        <v>15450</v>
+      </c>
+      <c r="G30" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H30" s="26">
+        <f t="shared" si="1"/>
+        <v>239475000</v>
+      </c>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="33">
+        <v>42909</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="23" t="str">
+        <f>VLOOKUP(B31,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Thanh Hải - Bình Thuận</v>
+      </c>
+      <c r="D31" s="23">
+        <f>VLOOKUP(B31,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>261005222</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="24">
+        <v>14250</v>
+      </c>
+      <c r="G31" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H31" s="26">
+        <f t="shared" si="1"/>
+        <v>220875000</v>
+      </c>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="33">
+        <v>42909</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="23" t="str">
+        <f>VLOOKUP(B32,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Đức Linh - Bình Thuận</v>
+      </c>
+      <c r="D32" s="23">
+        <f>VLOOKUP(B32,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260682094</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="24">
+        <v>15200</v>
+      </c>
+      <c r="G32" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H32" s="26">
+        <f t="shared" si="1"/>
+        <v>235600000</v>
+      </c>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="33">
+        <v>42909</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="23" t="str">
+        <f>VLOOKUP(B33,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D33" s="23">
+        <f>VLOOKUP(B33,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260850613</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="24">
+        <v>15240</v>
+      </c>
+      <c r="G33" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H33" s="26">
+        <f t="shared" si="1"/>
+        <v>236220000</v>
+      </c>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="33">
+        <v>42912</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="23" t="str">
+        <f>VLOOKUP(B34,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Hàm Tân - Bình Thuận</v>
+      </c>
+      <c r="D34" s="23">
+        <f>VLOOKUP(B34,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260690910</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="24">
+        <v>14780</v>
+      </c>
+      <c r="G34" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H34" s="26">
+        <f t="shared" si="1"/>
+        <v>229090000</v>
+      </c>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="33">
+        <v>42912</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="23" t="str">
+        <f>VLOOKUP(B35,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D35" s="23">
+        <f>VLOOKUP(B35,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>280853616</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="24">
+        <v>15160</v>
+      </c>
+      <c r="G35" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H35" s="26">
+        <f t="shared" ref="H35:H36" si="2">F35*G35</f>
+        <v>234980000</v>
+      </c>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="33">
+        <v>42912</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="23" t="str">
+        <f>VLOOKUP(B36,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Long Hương - Bình Thuận</v>
+      </c>
+      <c r="D36" s="23" t="str">
+        <f>VLOOKUP(B36,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>020714486</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="24">
+        <v>15320</v>
+      </c>
+      <c r="G36" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H36" s="26">
+        <f t="shared" si="2"/>
+        <v>237460000</v>
+      </c>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="33">
+        <v>42912</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="23" t="str">
+        <f>VLOOKUP(B37,[24]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D37" s="23">
+        <f>VLOOKUP(B37,[24]Vine!$A$5:$F$178,2,0)</f>
+        <v>260178873</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="24">
+        <f>369460-SUM(F14:F36)</f>
+        <v>15040</v>
+      </c>
+      <c r="G37" s="25">
+        <v>15500</v>
+      </c>
+      <c r="H37" s="26">
+        <f t="shared" si="0"/>
+        <v>233120000</v>
+      </c>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="11">
+        <f>SUM(H14:H38)</f>
+        <v>5726630000</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="C40" s="12"/>
+      <c r="D40" s="4"/>
+      <c r="G40" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="G42" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="33" customHeight="1">
+      <c r="A50" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+    </row>
+    <row r="51" spans="1:9" ht="34.5" customHeight="1">
+      <c r="A51" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="H1:I4"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:E6 F6">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Döõ lieäu sai"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.5" right="0" top="0.7" bottom="0.3" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24563,54 +26183,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="C5" s="3"/>
@@ -24640,26 +26260,26 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="82" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="82" t="s">
         <v>11</v>
       </c>
@@ -25153,9 +26773,9 @@
         <v>29</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" hidden="1" customHeight="1">
       <c r="B37" s="19"/>
@@ -25192,30 +26812,30 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="33" customHeight="1">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -25230,7 +26850,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26409,39 +28029,47 @@
       <c r="C21" s="128"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="154"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:K3"/>
@@ -26458,17 +28086,9 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="H15:K15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:D6 E6">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26481,8 +28101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -27067,54 +28687,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="C5" s="3"/>
@@ -27144,26 +28764,26 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="78" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="78" t="s">
         <v>11</v>
       </c>
@@ -27865,9 +29485,9 @@
         <v>29</v>
       </c>
       <c r="C43" s="19"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:11" ht="17.25" hidden="1" customHeight="1">
       <c r="B44" s="19"/>
@@ -27904,30 +29524,30 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:I32"/>
@@ -27943,7 +29563,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28543,54 +30163,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="C5" s="3"/>
@@ -28620,26 +30240,26 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="88" t="s">
         <v>11</v>
       </c>
@@ -29318,9 +30938,9 @@
         <v>29</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:11">
       <c r="B43" s="19"/>
@@ -29356,30 +30976,30 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A49" s="109" t="s">
+      <c r="A49" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="110"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
     </row>
     <row r="50" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -29394,7 +31014,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29993,54 +31613,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="C5" s="3"/>
@@ -30070,26 +31690,26 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="91" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="91" t="s">
         <v>11</v>
       </c>
@@ -30583,9 +32203,9 @@
         <v>29</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="19"/>
@@ -30622,30 +32242,30 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="35.25" customHeight="1">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -30660,7 +32280,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31259,54 +32879,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="C5" s="3"/>
@@ -31336,26 +32956,26 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="95" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="95" t="s">
         <v>11</v>
       </c>
@@ -31904,9 +33524,9 @@
         <v>29</v>
       </c>
       <c r="C37" s="19"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="19"/>
@@ -31943,30 +33563,30 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="35.25" customHeight="1">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -31981,7 +33601,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31995,7 +33615,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="K28" sqref="K28:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -32580,54 +34200,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1">
       <c r="C5" s="3"/>
@@ -32657,26 +34277,26 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="97" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="97" t="s">
         <v>11</v>
       </c>
@@ -33158,6 +34778,7 @@
       <c r="G30" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="16" t="s">
@@ -33199,9 +34820,9 @@
         <v>29</v>
       </c>
       <c r="C37" s="19"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" hidden="1" customHeight="1">
       <c r="B38" s="19"/>
@@ -33238,30 +34859,30 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" ht="30" customHeight="1">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -33276,7 +34897,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33877,54 +35498,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
       <c r="C5" s="3"/>
@@ -33955,26 +35576,26 @@
     </row>
     <row r="10" spans="1:15" ht="6" customHeight="1"/>
     <row r="11" spans="1:15">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
       <c r="I11" s="97" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="28.5">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="97" t="s">
         <v>11</v>
       </c>
@@ -34336,9 +35957,9 @@
         <v>29</v>
       </c>
       <c r="C31" s="19"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
     </row>
     <row r="32" spans="1:12" ht="3.75" hidden="1" customHeight="1">
       <c r="B32" s="19"/>
@@ -34375,30 +35996,30 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="33" customHeight="1">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -34413,7 +36034,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Bang ke NL, nông lâm sản/Nam 2017/Tháng 06.xlsx
+++ b/Bang ke NL, nông lâm sản/Nam 2017/Tháng 06.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="15600" windowHeight="9915" tabRatio="862" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="15600" windowHeight="9915" tabRatio="862" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Zhoushan 15" sheetId="28" r:id="rId1"/>
@@ -265,6 +265,7 @@
     <definedName name="OK_Trich_chtu_1_Don_vi" localSheetId="6">[14]!OK_Trich_chtu_1_Don_vi</definedName>
     <definedName name="OK_Trich_chtu_1_Don_vi">[14]!OK_Trich_chtu_1_Don_vi</definedName>
     <definedName name="P_TC">[10]Data!$B$5:$C$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'Dae Young'!$A$32:$I$60</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">Jiwon!$11:$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'PV 70.000'!$11:$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Zhoushan 15'!$11:$13</definedName>
@@ -351,7 +352,7 @@
     <definedName name="Xoa_mau_thke" localSheetId="6">[5]!Xoa_mau_thke</definedName>
     <definedName name="Xoa_mau_thke">[5]!Xoa_mau_thke</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -689,7 +690,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1511,6 +1512,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1602,9 +1606,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1785,7 +1786,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tienmat6"/>
@@ -1801,7 +1802,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Danh muc"/>
@@ -5677,7 +5678,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctgs9"/>
@@ -5694,7 +5695,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctkt1"/>
@@ -5711,7 +5712,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctgs4"/>
@@ -5731,7 +5732,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctgs3"/>
@@ -5760,7 +5761,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctgs5"/>
@@ -5776,7 +5777,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ds"/>
@@ -5789,7 +5790,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctgs7"/>
@@ -5820,7 +5821,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NHATKY"/>
@@ -9823,7 +9824,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctkt38"/>
@@ -9839,7 +9840,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tienmat6"/>
@@ -9855,7 +9856,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ds"/>
@@ -9873,7 +9874,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctgs7"/>
@@ -9890,7 +9891,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tienmat6"/>
@@ -9908,7 +9909,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CTGS4"/>
@@ -9924,7 +9925,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Vine"/>
@@ -11393,7 +11394,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Times"/>
@@ -11919,7 +11920,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Vine"/>
@@ -13388,7 +13389,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ds"/>
@@ -13401,7 +13402,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ds"/>
@@ -13419,7 +13420,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctgs4"/>
@@ -13455,7 +13456,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctgs11"/>
@@ -13472,7 +13473,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="SNKM02"/>
@@ -13503,7 +13504,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ctgs93"/>
@@ -13522,7 +13523,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HOPDONG"/>
@@ -16000,6 +16001,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -16034,6 +16036,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -16209,7 +16212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -17684,7 +17687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -18922,7 +18925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -20160,11 +20163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -21503,6 +21506,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A32:G34"/>
+    <mergeCell ref="H32:I35"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:H42"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A30:I30"/>
@@ -21512,15 +21524,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A32:G34"/>
-    <mergeCell ref="H32:I35"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:H42"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6 C36:E37 F37">
     <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
@@ -21528,12 +21531,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.5" right="0" top="0.3" bottom="0" header="0.3" footer="0"/>
-  <pageSetup scale="95" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -22883,7 +22886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -23994,10 +23997,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -25594,7 +25597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -26860,7 +26863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27705,11 +27708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
@@ -27737,19 +27740,19 @@
       <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="41"/>
@@ -27765,39 +27768,39 @@
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="137" t="s">
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="141" t="s">
+      <c r="H5" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="143" t="s">
+      <c r="I5" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="145" t="s">
+      <c r="J5" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="147" t="s">
+      <c r="K5" s="148" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="132"/>
-      <c r="B6" s="134"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="48" t="s">
         <v>55</v>
       </c>
@@ -27807,12 +27810,12 @@
       <c r="E6" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="138"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="148"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="149"/>
     </row>
     <row r="7" spans="1:14" s="57" customFormat="1" ht="15">
       <c r="A7" s="50">
@@ -27943,14 +27946,14 @@
       <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:14" s="65" customFormat="1" ht="15">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="151"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="152"/>
       <c r="G11" s="60">
         <f>SUM(G7:G10)</f>
         <v>6240</v>
@@ -27977,28 +27980,28 @@
       <c r="C14" s="71"/>
       <c r="F14" s="72"/>
       <c r="G14" s="73"/>
-      <c r="H14" s="152" t="s">
+      <c r="H14" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
       <c r="M14" s="89"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="153"/>
+      <c r="C15" s="154"/>
       <c r="D15" s="74"/>
       <c r="F15" s="69"/>
       <c r="G15" s="67"/>
-      <c r="H15" s="152" t="s">
+      <c r="H15" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
       <c r="M15" s="89"/>
       <c r="N15" s="89"/>
     </row>
@@ -28023,53 +28026,45 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="128"/>
+      <c r="C21" s="129"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:K3"/>
@@ -28086,6 +28081,14 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="H15:K15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:D6 E6">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -28098,7 +28101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -29573,7 +29576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -31024,7 +31027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -32290,7 +32293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -33611,7 +33614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -34907,7 +34910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
